--- a/biology/Botanique/Podocarpus/Podocarpus.xlsx
+++ b/biology/Botanique/Podocarpus/Podocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus est un genre d'arbres de la famille des Podocarpaceae (Conifères) composé d'une centaine d'espèces, originaires des régions tempérées et chaudes d'Extrême-Orient, d'Afrique, d'Amérique et d'Australasie.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Podocarpus sont des arbustes ou des arbres de 1 à 25 m de haut, généralement à feuillage persistant.
 Les feuilles sont linéaires, étroites, plus ou moins allongées (de 0,5 à 15  cm), munies d'une nervure principale bien individualisée. Chez certaines espèces elles sont arquées en faucilles. 
@@ -547,7 +561,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Afrique centrale (Cameroun, république démocratique du Congo, Nigeria), orientale (Kenya, Tanzanie) et australe (Afrique du Sud, Malawi)
 Amérique du Sud (Argentine, Chili) et Amérique centrale (Mexique, Honduras, Costa Rica, Venezuela)
@@ -580,9 +596,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 oct. 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (22 oct. 2012) :
 Podocarpus acuminatus de Laub. (1992)
 Podocarpus acutifolius Kirk (1884)
 Podocarpus affinis Seem. (1868)
@@ -681,10 +699,7 @@
 Podocarpus transiens (Pilg.) de Laub. (1984)
 Podocarpus trinitensis J.Buchholz &amp; N.E.Gray (1948)
 Podocarpus urbanii Pilg. (1903)
-Espèces reclassées dans d'autres genres
-Podocarpus andinus Poepp. ex Endl., voir Prumnopitys andina (Poepp. ex Endl.) de Laub.
-Podocarpus falcatus (Thunb.) R.Br.ex Mirb., voir Afrocarpus falcatus (Thunb.) C.N.Page
-Podocarpus nagi (Thunb.) Zoll.&amp; Moritzi ex Makino, voir Nageia nagi (Thunb.) Kuntze</t>
+</t>
         </is>
       </c>
     </row>
@@ -709,10 +724,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces reclassées dans d'autres genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Podocarpus andinus Poepp. ex Endl., voir Prumnopitys andina (Poepp. ex Endl.) de Laub.
+Podocarpus falcatus (Thunb.) R.Br.ex Mirb., voir Afrocarpus falcatus (Thunb.) C.N.Page
+Podocarpus nagi (Thunb.) Zoll.&amp; Moritzi ex Makino, voir Nageia nagi (Thunb.) Kuntze</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Podocarpus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Podocarpus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbres d'ornement :
 Plusieurs espèces de Podocarpus sont cultivées comme arbres d'ornement dans les parcs et jardins sous climats doux, ils peuvent aussi être formés en haies, espaliers ou écrans. Ils sont appréciés pour leur port et leur feuillage vert foncé. C'est notamment le cas de Podocarpus macrophyllus, connu aussi sous son nom japonais, Kusamaki, ou à l'occasion comme « pin bouddhiste », Podocarpus salignus originaire du Chili, Podocarpus nivalis comme petit arbuste aux baies rouges attractives.
@@ -723,31 +778,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Podocarpus</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Podocarpus</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le nom générique Podocarpus vient du grec pous, podos, le pied - et karpos,  le fruit, en référence aux pédoncules charnus des fruits. Il a été créé par le botaniste français Charles Louis L'Héritier de Brutelle (1746-1800).</t>
         </is>
